--- a/Switches/Contactor Switch/Electrical/BOM_V2.0.1 Contactor Switch_V2.0.1 PCB_2024-06-04.xlsx
+++ b/Switches/Contactor Switch/Electrical/BOM_V2.0.1 Contactor Switch_V2.0.1 PCB_2024-06-04.xlsx
@@ -49,10 +49,31 @@
     <t>2</t>
   </si>
   <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C1,C2</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>CL10A106MA8NRNC</t>
+  </si>
+  <si>
+    <t>SAMSUNG(三星)</t>
+  </si>
+  <si>
+    <t>C96446</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
     <t>Y1 102M</t>
   </si>
   <si>
-    <t>C1,C5</t>
+    <t>C3,C7</t>
   </si>
   <si>
     <t>CAP-TH_L8.5-W5.0-P10.00-D0.6</t>
@@ -70,13 +91,13 @@
     <t>C1620957</t>
   </si>
   <si>
-    <t>LCSC</t>
+    <t>3</t>
   </si>
   <si>
     <t>X2 104K</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C4</t>
   </si>
   <si>
     <t>CAP-TH_L10.0-W5.0-P7.50-D0.6</t>
@@ -94,34 +115,13 @@
     <t>C2693793</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C10,C11</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>CL10A106MA8NRNC</t>
-  </si>
-  <si>
-    <t>SAMSUNG(三星)</t>
-  </si>
-  <si>
-    <t>C96446</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C17</t>
+    <t>C5</t>
   </si>
   <si>
     <t>C1206</t>
@@ -139,7 +139,7 @@
     <t>470uF</t>
   </si>
   <si>
-    <t>C18</t>
+    <t>C6</t>
   </si>
   <si>
     <t>CAP-TH_BD8.0-P3.50-D0.6-FD</t>
@@ -160,7 +160,7 @@
     <t>SS14</t>
   </si>
   <si>
-    <t>D4,w</t>
+    <t>D1,D2</t>
   </si>
   <si>
     <t>SMA_L4.2-W2.6-LS5.3-RD</t>
@@ -181,7 +181,7 @@
     <t>P6KE6.8A</t>
   </si>
   <si>
-    <t>D5</t>
+    <t>D3</t>
   </si>
   <si>
     <t>DO-15_BD3.1-L6.7-P10.70-D0.9-RD</t>
@@ -247,10 +247,46 @@
     <t>11</t>
   </si>
   <si>
+    <t>DBT50G-8.25-2P-BK-P</t>
+  </si>
+  <si>
+    <t>J1,J2</t>
+  </si>
+  <si>
+    <t>CONN-TH_DBT50G-8.25-2P</t>
+  </si>
+  <si>
+    <t>DORABO(地博电气)</t>
+  </si>
+  <si>
+    <t>C918130</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>T34001</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>CONN-TH_T34001</t>
+  </si>
+  <si>
+    <t>XFCN(兴飞)</t>
+  </si>
+  <si>
+    <t>C481448</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>D-SUB-DR-9PCM-CB</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>J4</t>
   </si>
   <si>
     <t>DB9-TH_ID09S33E4GV00LF</t>
@@ -262,42 +298,6 @@
     <t>C19077337</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>DBT50G-8.25-2P-BK-P</t>
-  </si>
-  <si>
-    <t>J2,J4</t>
-  </si>
-  <si>
-    <t>CONN-TH_DBT50G-8.25-2P</t>
-  </si>
-  <si>
-    <t>DORABO(地博电气)</t>
-  </si>
-  <si>
-    <t>C918130</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>T34001</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>CONN-TH_T34001</t>
-  </si>
-  <si>
-    <t>XFCN(兴飞)</t>
-  </si>
-  <si>
-    <t>C481448</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -394,10 +394,46 @@
     <t>19</t>
   </si>
   <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>UNI-ROYAL(厚声)</t>
+  </si>
+  <si>
+    <t>C21190</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>5.1kΩ</t>
+  </si>
+  <si>
+    <t>R5,R6</t>
+  </si>
+  <si>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>C23186</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>10D471K</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R7</t>
   </si>
   <si>
     <t>RES-TH_L12.5-W6.7-P7.50-D1.2</t>
@@ -409,49 +445,31 @@
     <t>C8760</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>5.1kΩ</t>
-  </si>
-  <si>
-    <t>R8,R9</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>0603WAF5101T5E</t>
-  </si>
-  <si>
-    <t>UNI-ROYAL(厚声)</t>
-  </si>
-  <si>
-    <t>C23186</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>R10,R11,R12,R13</t>
-  </si>
-  <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>C21190</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
+    <t>DS18B20Z</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>UMW(友台半导体)</t>
+  </si>
+  <si>
+    <t>C695837</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>MT9700</t>
   </si>
   <si>
-    <t>U4</t>
+    <t>U2</t>
   </si>
   <si>
     <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
@@ -463,31 +481,13 @@
     <t>C89855</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>DS18B20Z</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>UMW(友台半导体)</t>
-  </si>
-  <si>
-    <t>C695837</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>TAS10-5-W2</t>
   </si>
   <si>
-    <t>U6</t>
+    <t>U3</t>
   </si>
   <si>
     <t>PWRM-TH_TAS10-XX-W2</t>
@@ -931,19 +931,19 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -951,51 +951,51 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -1007,7 +1007,7 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1033,13 +1033,13 @@
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>78</v>
@@ -1263,7 +1263,7 @@
         <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>84</v>
@@ -1295,7 +1295,7 @@
         <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>106</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>127</v>
@@ -1507,83 +1507,83 @@
         <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" t="s">
         <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" t="s">
-        <v>133</v>
       </c>
       <c r="G21" t="s">
         <v>136</v>
       </c>
       <c r="H21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" t="s">
         <v>137</v>
       </c>
-      <c r="I21" t="s">
-        <v>138</v>
-      </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>140</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" t="s">
-        <v>135</v>
-      </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" t="s">
         <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>137</v>
       </c>
       <c r="I22" t="s">
         <v>143</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>149</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>161</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
